--- a/bootstrap_lib.xlsx
+++ b/bootstrap_lib.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="45" windowWidth="13395" windowHeight="9525"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="82">
   <si>
     <t xml:space="preserve">&lt;!DOCTYPE html&gt;
 &lt;html&gt;
@@ -791,21 +791,44 @@
   &lt;/div&gt;
 &lt;/div&gt;</t>
   </si>
+  <si>
+    <t>Language</t>
+  </si>
+  <si>
+    <t>Desc</t>
+  </si>
+  <si>
+    <t>Code Ref</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color theme="2"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="新細明體"/>
+      <family val="3"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -815,6 +838,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.34998626667073579"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -831,24 +860,35 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -922,6 +962,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -956,6 +997,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1131,490 +1173,502 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C42"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="39" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="39" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.5703125" customWidth="1"/>
     <col min="2" max="2" width="22.42578125" customWidth="1"/>
     <col min="3" max="3" width="81.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="39" customHeight="1">
-      <c r="A1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1" spans="1:3" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="39" customHeight="1">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
+    <row r="3" spans="1:3" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="39" customHeight="1">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
+    <row r="4" spans="1:3" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="39" customHeight="1">
-      <c r="A4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" t="s">
+    <row r="5" spans="1:3" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="39" customHeight="1">
-      <c r="A5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" t="s">
+    <row r="6" spans="1:3" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="39" customHeight="1">
-      <c r="A6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" t="s">
+    <row r="7" spans="1:3" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="39" customHeight="1">
-      <c r="A7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B7" t="s">
+    <row r="8" spans="1:3" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="39" customHeight="1">
-      <c r="A8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" t="s">
+    <row r="9" spans="1:3" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="39" customHeight="1">
-      <c r="A9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B9" t="s">
+    <row r="10" spans="1:3" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="39" customHeight="1">
-      <c r="A10" t="s">
-        <v>1</v>
-      </c>
-      <c r="B10" t="s">
+    <row r="11" spans="1:3" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C11" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="39" customHeight="1">
-      <c r="A11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B11" t="s">
+    <row r="12" spans="1:3" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="39" customHeight="1">
-      <c r="A12" t="s">
-        <v>1</v>
-      </c>
-      <c r="B12" t="s">
+    <row r="13" spans="1:3" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C13" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="39" customHeight="1">
-      <c r="A13" t="s">
-        <v>1</v>
-      </c>
-      <c r="B13" t="s">
+    <row r="14" spans="1:3" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C14" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="39" customHeight="1">
-      <c r="A14" t="s">
-        <v>1</v>
-      </c>
-      <c r="B14" t="s">
+    <row r="15" spans="1:3" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C15" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="39" customHeight="1">
-      <c r="A15" t="s">
-        <v>1</v>
-      </c>
-      <c r="B15" t="s">
+    <row r="16" spans="1:3" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B16" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C16" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="39" customHeight="1">
-      <c r="A16" t="s">
-        <v>1</v>
-      </c>
-      <c r="B16" t="s">
+    <row r="17" spans="1:3" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B17" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C17" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="39" customHeight="1">
-      <c r="A17" t="s">
-        <v>1</v>
-      </c>
-      <c r="B17" t="s">
+    <row r="18" spans="1:3" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>1</v>
+      </c>
+      <c r="B18" t="s">
         <v>33</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C18" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="39" customHeight="1">
-      <c r="A18" t="s">
-        <v>1</v>
-      </c>
-      <c r="B18" t="s">
+    <row r="19" spans="1:3" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>1</v>
+      </c>
+      <c r="B19" t="s">
         <v>35</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C19" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="39" customHeight="1">
-      <c r="A19" t="s">
-        <v>1</v>
-      </c>
-      <c r="B19" t="s">
+    <row r="20" spans="1:3" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B20" t="s">
         <v>37</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C20" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="39" customHeight="1">
-      <c r="A20" t="s">
-        <v>1</v>
-      </c>
-      <c r="B20" t="s">
+    <row r="21" spans="1:3" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>1</v>
+      </c>
+      <c r="B21" t="s">
         <v>39</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C21" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="39" customHeight="1">
-      <c r="A21" t="s">
-        <v>1</v>
-      </c>
-      <c r="B21" t="s">
+    <row r="22" spans="1:3" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>1</v>
+      </c>
+      <c r="B22" t="s">
         <v>41</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C22" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="39" customHeight="1">
-      <c r="A22" t="s">
-        <v>1</v>
-      </c>
-      <c r="B22" t="s">
+    <row r="23" spans="1:3" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>1</v>
+      </c>
+      <c r="B23" t="s">
         <v>43</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C23" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="39" customHeight="1">
-      <c r="A23" t="s">
-        <v>1</v>
-      </c>
-      <c r="B23" t="s">
+    <row r="24" spans="1:3" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>1</v>
+      </c>
+      <c r="B24" t="s">
         <v>45</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C24" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="39" customHeight="1">
-      <c r="A24" t="s">
-        <v>1</v>
-      </c>
-      <c r="B24" t="s">
+    <row r="25" spans="1:3" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>1</v>
+      </c>
+      <c r="B25" t="s">
         <v>47</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C25" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="39" customHeight="1">
-      <c r="A25" t="s">
-        <v>1</v>
-      </c>
-      <c r="B25" t="s">
+    <row r="26" spans="1:3" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>1</v>
+      </c>
+      <c r="B26" t="s">
         <v>49</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C26" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="39" customHeight="1">
-      <c r="A26" t="s">
-        <v>1</v>
-      </c>
-      <c r="B26" t="s">
+    <row r="27" spans="1:3" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>1</v>
+      </c>
+      <c r="B27" t="s">
         <v>51</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C27" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="39" customHeight="1">
-      <c r="A27" t="s">
-        <v>1</v>
-      </c>
-      <c r="B27" t="s">
+    <row r="28" spans="1:3" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>1</v>
+      </c>
+      <c r="B28" t="s">
         <v>53</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C28" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="39" customHeight="1">
-      <c r="A28" t="s">
-        <v>1</v>
-      </c>
-      <c r="B28" s="3" t="s">
+    <row r="29" spans="1:3" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>1</v>
+      </c>
+      <c r="B29" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C29" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="39" customHeight="1">
-      <c r="A29" t="s">
-        <v>1</v>
-      </c>
-      <c r="B29" s="2" t="s">
+    <row r="30" spans="1:3" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>1</v>
+      </c>
+      <c r="B30" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C30" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="39" customHeight="1">
-      <c r="A30" t="s">
-        <v>1</v>
-      </c>
-      <c r="B30" s="3" t="s">
+    <row r="31" spans="1:3" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>1</v>
+      </c>
+      <c r="B31" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C31" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="39" customHeight="1">
-      <c r="A31" t="s">
-        <v>1</v>
-      </c>
-      <c r="B31" s="3" t="s">
+    <row r="32" spans="1:3" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>1</v>
+      </c>
+      <c r="B32" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C32" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="39" customHeight="1">
-      <c r="A32" t="s">
-        <v>1</v>
-      </c>
-      <c r="B32" s="3" t="s">
+    <row r="33" spans="1:3" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>1</v>
+      </c>
+      <c r="B33" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C33" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="39" customHeight="1">
-      <c r="A33" t="s">
-        <v>1</v>
-      </c>
-      <c r="B33" s="3" t="s">
+    <row r="34" spans="1:3" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>1</v>
+      </c>
+      <c r="B34" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="C34" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="39" customHeight="1">
-      <c r="A34" t="s">
-        <v>1</v>
-      </c>
-      <c r="B34" s="3" t="s">
+    <row r="35" spans="1:3" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>1</v>
+      </c>
+      <c r="B35" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="C35" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="39" customHeight="1">
-      <c r="A35" t="s">
-        <v>1</v>
-      </c>
-      <c r="B35" s="3" t="s">
+    <row r="36" spans="1:3" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>1</v>
+      </c>
+      <c r="B36" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="C36" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="39" customHeight="1">
-      <c r="A36" t="s">
-        <v>1</v>
-      </c>
-      <c r="B36" s="3" t="s">
+    <row r="37" spans="1:3" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>1</v>
+      </c>
+      <c r="B37" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="C37" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="39" customHeight="1">
-      <c r="A37" t="s">
-        <v>1</v>
-      </c>
-      <c r="B37" s="3" t="s">
+    <row r="38" spans="1:3" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>1</v>
+      </c>
+      <c r="B38" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="C38" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="39" customHeight="1">
-      <c r="A38" t="s">
-        <v>1</v>
-      </c>
-      <c r="B38" s="3" t="s">
+    <row r="39" spans="1:3" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>1</v>
+      </c>
+      <c r="B39" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="C39" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="39" customHeight="1">
-      <c r="A39" t="s">
-        <v>1</v>
-      </c>
-      <c r="B39" s="3" t="s">
+    <row r="40" spans="1:3" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>1</v>
+      </c>
+      <c r="B40" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="C40" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="39" customHeight="1">
-      <c r="A40" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="39" customHeight="1">
+    <row r="41" spans="1:3" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="39" customHeight="1">
+    <row r="42" spans="1:3" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>1</v>
       </c>
     </row>
+    <row r="43" spans="1:3" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/bootstrap_lib.xlsx
+++ b/bootstrap_lib.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="45" windowWidth="13395" windowHeight="9525"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="10320" windowHeight="9405"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,627 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="84">
+  <si>
+    <t>bootstrap</t>
+  </si>
+  <si>
+    <t>Scrollspy &amp; Affix Horizontal Menu (Navbar)</t>
+  </si>
+  <si>
+    <t>head</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;link rel="stylesheet" href="http://maxcdn.bootstrapcdn.com/bootstrap/3.3.6/css/bootstrap.min.css"&gt;
+  &lt;script src="https://ajax.googleapis.com/ajax/libs/jquery/1.12.0/jquery.min.js"&gt;&lt;/script&gt;
+  &lt;script src="http://maxcdn.bootstrapcdn.com/bootstrap/3.3.6/js/bootstrap.min.js"&gt;&lt;/script&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+&lt;div class="container-fluid"&gt;
+  &lt;h1&gt;Hello World!&lt;/h1&gt;
+  &lt;p&gt;Resize the browser window to see the effect.&lt;/p&gt;
+  &lt;div class="row"&gt;
+    &lt;div class="col-sm-4" style="background-color:lavender;"&gt;.col-sm-4&lt;/div&gt;
+    &lt;div class="col-sm-4" style="background-color:lavenderblush;"&gt;.col-sm-4&lt;/div&gt;
+    &lt;div class="col-sm-4" style="background-color:lavender;"&gt;.col-sm-4&lt;/div&gt;
+  &lt;/div&gt;
+&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>grid system</t>
+  </si>
+  <si>
+    <t>hover table</t>
+  </si>
+  <si>
+    <t>&lt;div class="container"&gt;
+  &lt;h2&gt;Hover Rows&lt;/h2&gt;
+  &lt;p&gt;The .table-hover class enables a hover state on table rows:&lt;/p&gt;            
+  &lt;table class="table table-hover"&gt;
+    &lt;thead&gt;
+      &lt;tr&gt;
+        &lt;th&gt;Firstname&lt;/th&gt;
+        &lt;th&gt;Lastname&lt;/th&gt;
+        &lt;th&gt;Email&lt;/th&gt;
+      &lt;/tr&gt;
+    &lt;/thead&gt;
+    &lt;tbody&gt;
+      &lt;tr&gt;
+        &lt;td&gt;John&lt;/td&gt;
+        &lt;td&gt;Doe&lt;/td&gt;
+        &lt;td&gt;john@example.com&lt;/td&gt;
+      &lt;/tr&gt;
+      &lt;tr&gt;
+        &lt;td&gt;Mary&lt;/td&gt;
+        &lt;td&gt;Moe&lt;/td&gt;
+        &lt;td&gt;mary@example.com&lt;/td&gt;
+      &lt;/tr&gt;
+      &lt;tr&gt;
+        &lt;td&gt;July&lt;/td&gt;
+        &lt;td&gt;Dooley&lt;/td&gt;
+        &lt;td&gt;july@example.com&lt;/td&gt;
+      &lt;/tr&gt;
+    &lt;/tbody&gt;
+  &lt;/table&gt;
+&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div class="container"&gt;
+  &lt;h2&gt;Image&lt;/h2&gt;
+  &lt;p&gt;The .img-responsive class makes the image scale nicely to the parent element (resize the browser window to see the effect):&lt;/p&gt;
+  &lt;img class="img-responsive" src="img_chania.jpg" alt="Chania" width="460" height="345"&gt; 
+&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>responsive img</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+&lt;div class="container"&gt;
+  &lt;h2&gt;Circle&lt;/h2&gt;
+  &lt;p&gt;The .img-circle class shapes the image to a circle (not available in IE8):&lt;/p&gt;            
+  &lt;img src="cinqueterre.jpg" class="img-circle" alt="Cinque Terre" width="304" height="236"&gt; 
+&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>circle img</t>
+  </si>
+  <si>
+    <t>responsive iframe</t>
+  </si>
+  <si>
+    <t>&lt;div class="container"&gt;
+  &lt;h2&gt;Responsive Embed&lt;/h2&gt;
+  &lt;div class="embed-responsive embed-responsive-16by9"&gt;
+    &lt;iframe class="embed-responsive-item" src="http://www.youtube.com/embed/XGSy3_Czz8k"&gt;&lt;/iframe&gt;
+  &lt;/div&gt;
+&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>Jumbotron</t>
+  </si>
+  <si>
+    <t>Page Header</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+&lt;div class="container"&gt;
+  &lt;div class="page-header"&gt;
+    &lt;h1&gt;Example Page Header&lt;/h1&gt;      
+  &lt;/div&gt;
+  &lt;p&gt;This is some text.&lt;/p&gt;      
+  &lt;p&gt;This is another text.&lt;/p&gt;      
+&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div class="well well-sm"&gt;Small Well&lt;/div&gt;
+&lt;div class="well well-lg"&gt;Large Well&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>Well</t>
+  </si>
+  <si>
+    <t>&lt;div class="container"&gt;
+  &lt;h2&gt;Alerts&lt;/h2&gt;
+  &lt;p&gt;The a element with class="close" and data-dismiss="alert" is used to close the alert box.&lt;/p&gt;
+  &lt;div class="alert alert-success"&gt;
+    &lt;a href="#" class="close" data-dismiss="alert" aria-label="close"&gt;&amp;times;&lt;/a&gt;
+    &lt;strong&gt;Success!&lt;/strong&gt; This alert box could indicate a successful or positive action.
+  &lt;/div&gt;
+  &lt;div class="alert alert-info"&gt;
+    &lt;a href="#" class="close" data-dismiss="alert" aria-label="close"&gt;&amp;times;&lt;/a&gt;
+    &lt;strong&gt;Info!&lt;/strong&gt; This alert box could indicate a neutral informative change or action.
+  &lt;/div&gt;
+  &lt;div class="alert alert-warning"&gt;
+    &lt;a href="#" class="close" data-dismiss="alert" aria-label="close"&gt;&amp;times;&lt;/a&gt;
+    &lt;strong&gt;Warning!&lt;/strong&gt; This alert box could indicate a warning that might need attention.
+  &lt;/div&gt;
+  &lt;div class="alert alert-danger"&gt;
+    &lt;a href="#" class="close" data-dismiss="alert" aria-label="close"&gt;&amp;times;&lt;/a&gt;
+    &lt;strong&gt;Danger!&lt;/strong&gt; This alert box could indicate a dangerous or potentially negative action.
+  &lt;/div&gt;
+&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>Close alert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+&lt;div class="container"&gt;
+  &lt;h2&gt;Alerts&lt;/h2&gt;
+  &lt;p&gt;The .fade and .in classes adds a fading effect when closing the alert message.&lt;/p&gt;
+  &lt;div class="alert alert-success fade in"&gt;
+    &lt;a href="#" class="close" data-dismiss="alert" aria-label="close"&gt;&amp;times;&lt;/a&gt;
+    &lt;strong&gt;Success!&lt;/strong&gt; This alert box could indicate a successful or positive action.
+  &lt;/div&gt;
+  &lt;div class="alert alert-info fade in"&gt;
+    &lt;a href="#" class="close" data-dismiss="alert" aria-label="close"&gt;&amp;times;&lt;/a&gt;
+    &lt;strong&gt;Info!&lt;/strong&gt; This alert box could indicate a neutral informative change or action.
+  &lt;/div&gt;
+  &lt;div class="alert alert-warning fade in"&gt;
+    &lt;a href="#" class="close" data-dismiss="alert" aria-label="close"&gt;&amp;times;&lt;/a&gt;
+    &lt;strong&gt;Warning!&lt;/strong&gt; This alert box could indicate a warning that might need attention.
+  &lt;/div&gt;
+  &lt;div class="alert alert-danger fade in"&gt;
+    &lt;a href="#" class="close" data-dismiss="alert" aria-label="close"&gt;&amp;times;&lt;/a&gt;
+    &lt;strong&gt;Danger!&lt;/strong&gt; This alert box could indicate a dangerous or potentially negative action.
+  &lt;/div&gt;
+&lt;/div&gt;
+</t>
+  </si>
+  <si>
+    <t>Animated Alert</t>
+  </si>
+  <si>
+    <t>&lt;button type="button" class="btn btn-default"&gt;Default&lt;/button&gt;
+&lt;button type="button" class="btn btn-primary"&gt;Primary&lt;/button&gt;
+&lt;button type="button" class="btn btn-success"&gt;Success&lt;/button&gt;
+&lt;button type="button" class="btn btn-info"&gt;Info&lt;/button&gt;
+&lt;button type="button" class="btn btn-warning"&gt;Warning&lt;/button&gt;
+&lt;button type="button" class="btn btn-danger"&gt;Danger&lt;/button&gt;
+&lt;button type="button" class="btn btn-link"&gt;Link&lt;/button&gt;</t>
+  </si>
+  <si>
+    <t>button w .btn</t>
+  </si>
+  <si>
+    <t>Nesting Button Groups &amp; Dropdown Menus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+&lt;div class="container"&gt;
+  &lt;h2&gt;Nesting Button Groups&lt;/h2&gt;
+  &lt;p&gt;Nest button groups to create drop down menus:&lt;/p&gt;
+  &lt;div class="btn-group"&gt;
+    &lt;button type="button" class="btn btn-primary"&gt;Apple&lt;/button&gt;
+    &lt;button type="button" class="btn btn-primary"&gt;Samsung&lt;/button&gt;
+    &lt;div class="btn-group"&gt;
+      &lt;button type="button" class="btn btn-primary dropdown-toggle" data-toggle="dropdown"&gt;
+      Sony &lt;span class="caret"&gt;&lt;/span&gt;&lt;/button&gt;
+      &lt;ul class="dropdown-menu" role="menu"&gt;
+        &lt;li&gt;&lt;a href="#"&gt;Tablet&lt;/a&gt;&lt;/li&gt;
+        &lt;li&gt;&lt;a href="#"&gt;Smartphone&lt;/a&gt;&lt;/li&gt;
+      &lt;/ul&gt;
+    &lt;/div&gt;
+  &lt;/div&gt;
+&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>Badges</t>
+  </si>
+  <si>
+    <t>&lt;a href="#"&gt;News &lt;span class="badge"&gt;5&lt;/span&gt;&lt;/a&gt;&lt;br&gt;
+&lt;a href="#"&gt;Comments &lt;span class="badge"&gt;10&lt;/span&gt;&lt;/a&gt;&lt;br&gt;
+&lt;a href="#"&gt;Updates &lt;span class="badge"&gt;2&lt;/span&gt;&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Labels</t>
+  </si>
+  <si>
+    <t>&lt;h1&gt;Example &lt;span class="label label-default"&gt;New&lt;/span&gt;&lt;/h1&gt;
+&lt;h2&gt;Example &lt;span class="label label-default"&gt;New&lt;/span&gt;&lt;/h2&gt;
+&lt;h3&gt;Example &lt;span class="label label-default"&gt;New&lt;/span&gt;&lt;/h3&gt;
+&lt;h4&gt;Example &lt;span class="label label-default"&gt;New&lt;/span&gt;&lt;/h4&gt;
+&lt;h5&gt;Example &lt;span class="label label-default"&gt;New&lt;/span&gt;&lt;/h5&gt;
+&lt;h6&gt;Example &lt;span class="label label-default"&gt;New&lt;/span&gt;&lt;/h6&gt;
+&lt;span class="label label-default"&gt;Default Label&lt;/span&gt;
+&lt;span class="label label-primary"&gt;Primary Label&lt;/span&gt;
+&lt;span class="label label-success"&gt;Success Label&lt;/span&gt;
+&lt;span class="label label-info"&gt;Info Label&lt;/span&gt;
+&lt;span class="label label-warning"&gt;Warning Label&lt;/span&gt;
+&lt;span class="label label-danger"&gt;Danger Label&lt;/span&gt;</t>
+  </si>
+  <si>
+    <t>Striped Progress Bars</t>
+  </si>
+  <si>
+    <t>&lt;div class="progress"&gt;
+  &lt;div class="progress-bar progress-bar-success progress-bar-striped" role="progressbar"
+  aria-valuenow="40" aria-valuemin="0" aria-valuemax="100" style="width:40%"&gt;
+    40% Complete (success)
+  &lt;/div&gt;
+&lt;/div&gt;
+&lt;div class="progress"&gt;
+  &lt;div class="progress-bar progress-bar-info progress-bar-striped" role="progressbar"
+  aria-valuenow="50" aria-valuemin="0" aria-valuemax="100" style="width:50%"&gt;
+    50% Complete (info)
+  &lt;/div&gt;
+&lt;/div&gt;
+&lt;div class="progress"&gt;
+  &lt;div class="progress-bar progress-bar-warning progress-bar-striped" role="progressbar"
+  aria-valuenow="60" aria-valuemin="0" aria-valuemax="100" style="width:60%"&gt;
+    60% Complete (warning)
+  &lt;/div&gt;
+&lt;/div&gt;
+&lt;div class="progress"&gt;
+  &lt;div class="progress-bar progress-bar-danger progress-bar-striped" role="progressbar"
+  aria-valuenow="70" aria-valuemin="0" aria-valuemax="100" style="width:70%"&gt;
+    70% Complete (danger)
+  &lt;/div&gt;
+&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>Animated Progress Bar</t>
+  </si>
+  <si>
+    <t>&lt;div class="progress"&gt;
+  &lt;div class="progress-bar progress-bar-striped active" role="progressbar"
+  aria-valuenow="40" aria-valuemin="0" aria-valuemax="100" style="width:40%"&gt;
+    40%
+  &lt;/div&gt;
+&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>Basic List Groups</t>
+  </si>
+  <si>
+    <t>&lt;ul class="list-group"&gt;
+  &lt;li class="list-group-item"&gt;First item&lt;/li&gt;
+  &lt;li class="list-group-item"&gt;Second item&lt;/li&gt;
+  &lt;li class="list-group-item"&gt;Third item&lt;/li&gt;
+&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>Panels</t>
+  </si>
+  <si>
+    <t>&lt;div class="panel panel-default"&gt;
+ &lt;div class="panel-heading"&gt;Panel Heading&lt;/div&gt;
+  &lt;div class="panel-body"&gt;Panel Content&lt;/div&gt;
+  &lt;div class="panel-footer"&gt;Panel Footer&lt;/div&gt;
+&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>Panels with Contextual Classes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+&lt;div class="container"&gt;
+  &lt;h2&gt;Panels with Contextual Classes&lt;/h2&gt;
+  &lt;div class="panel-group"&gt;
+    &lt;div class="panel panel-default"&gt;
+      &lt;div class="panel-heading"&gt;Panel with panel-default class&lt;/div&gt;
+      &lt;div class="panel-body"&gt;Panel Content&lt;/div&gt;
+    &lt;/div&gt;
+    &lt;div class="panel panel-primary"&gt;
+      &lt;div class="panel-heading"&gt;Panel with panel-primary class&lt;/div&gt;
+      &lt;div class="panel-body"&gt;Panel Content&lt;/div&gt;
+    &lt;/div&gt;
+    &lt;div class="panel panel-success"&gt;
+      &lt;div class="panel-heading"&gt;Panel with panel-success class&lt;/div&gt;
+      &lt;div class="panel-body"&gt;Panel Content&lt;/div&gt;
+    &lt;/div&gt;
+    &lt;div class="panel panel-info"&gt;
+      &lt;div class="panel-heading"&gt;Panel with panel-info class&lt;/div&gt;
+      &lt;div class="panel-body"&gt;Panel Content&lt;/div&gt;
+    &lt;/div&gt;
+    &lt;div class="panel panel-warning"&gt;
+      &lt;div class="panel-heading"&gt;Panel with panel-warning class&lt;/div&gt;
+      &lt;div class="panel-body"&gt;Panel Content&lt;/div&gt;
+    &lt;/div&gt;
+    &lt;div class="panel panel-danger"&gt;
+      &lt;div class="panel-heading"&gt;Panel with panel-danger class&lt;/div&gt;
+      &lt;div class="panel-body"&gt;Panel Content&lt;/div&gt;
+    &lt;/div&gt;
+  &lt;/div&gt;
+&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>Dropdown</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+&lt;div class="container"&gt;
+  &lt;h2&gt;Dropdowns&lt;/h2&gt;
+  &lt;p&gt;The .dropdown-header class is used to add headers inside the dropdown menu:&lt;/p&gt;
+  &lt;div class="dropdown"&gt;
+    &lt;button class="btn btn-default dropdown-toggle" type="button" data-toggle="dropdown"&gt;Tutorials
+    &lt;span class="caret"&gt;&lt;/span&gt;&lt;/button&gt;
+    &lt;ul class="dropdown-menu"&gt;
+      &lt;li class="dropdown-header"&gt;Dropdown header 1&lt;/li&gt;
+      &lt;li&gt;&lt;a href="#"&gt;HTML&lt;/a&gt;&lt;/li&gt;
+      &lt;li&gt;&lt;a href="#"&gt;CSS&lt;/a&gt;&lt;/li&gt;
+      &lt;li&gt;&lt;a href="#"&gt;JavaScript&lt;/a&gt;&lt;/li&gt;
+      &lt;li class="divider"&gt;&lt;/li&gt;
+      &lt;li class="dropdown-header"&gt;Dropdown header 2&lt;/li&gt;
+      &lt;li&gt;&lt;a href="#"&gt;About Us&lt;/a&gt;&lt;/li&gt;
+    &lt;/ul&gt;
+  &lt;/div&gt;
+&lt;/div&gt;
+</t>
+  </si>
+  <si>
+    <t>Accordion (Collopse Panel)</t>
+  </si>
+  <si>
+    <t>&lt;div class="panel-group" id="accordion"&gt;
+  &lt;div class="panel panel-default"&gt;
+    &lt;div class="panel-heading"&gt;
+      &lt;h4 class="panel-title"&gt;
+        &lt;a data-toggle="collapse" data-parent="#accordion" href="#collapse1"&gt;
+        Collapsible Group 1&lt;/a&gt;
+      &lt;/h4&gt;
+    &lt;/div&gt;
+    &lt;div id="collapse1" class="panel-collapse collapse in"&gt;
+      &lt;div class="panel-body"&gt;Lorem ipsum dolor sit amet, consectetur adipisicing elit,
+      sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Ut enim ad
+      minim veniam, quis nostrud exercitation ullamco laboris nisi ut aliquip ex ea
+      commodo consequat.&lt;/div&gt;
+    &lt;/div&gt;
+  &lt;/div&gt;
+  &lt;div class="panel panel-default"&gt;
+    &lt;div class="panel-heading"&gt;
+      &lt;h4 class="panel-title"&gt;
+        &lt;a data-toggle="collapse" data-parent="#accordion" href="#collapse2"&gt;
+        Collapsible Group 2&lt;/a&gt;
+      &lt;/h4&gt;
+    &lt;/div&gt;
+    &lt;div id="collapse2" class="panel-collapse collapse"&gt;
+      &lt;div class="panel-body"&gt;Lorem ipsum dolor sit amet, consectetur adipisicing elit,
+      sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Ut enim ad
+      minim veniam, quis nostrud exercitation ullamco laboris nisi ut aliquip ex ea
+      commodo consequat.&lt;/div&gt;
+    &lt;/div&gt;
+  &lt;/div&gt;
+  &lt;div class="panel panel-default"&gt;
+    &lt;div class="panel-heading"&gt;
+      &lt;h4 class="panel-title"&gt;
+        &lt;a data-toggle="collapse" data-parent="#accordion" href="#collapse3"&gt;
+        Collapsible Group 3&lt;/a&gt;
+      &lt;/h4&gt;
+    &lt;/div&gt;
+    &lt;div id="collapse3" class="panel-collapse collapse"&gt;
+      &lt;div class="panel-body"&gt;Lorem ipsum dolor sit amet, consectetur adipisicing elit,
+      sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Ut enim ad
+      minim veniam, quis nostrud exercitation ullamco laboris nisi ut aliquip ex ea
+      commodo consequat.&lt;/div&gt;
+    &lt;/div&gt;
+  &lt;/div&gt;
+&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>Menus</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;
+  &lt;li&gt;&lt;a href="#"&gt;Home&lt;/a&gt;&lt;/li&gt;
+  &lt;li&gt;&lt;a href="#"&gt;Menu 1&lt;/a&gt;&lt;/li&gt;
+  &lt;li&gt;&lt;a href="#"&gt;Menu 2&lt;/a&gt;&lt;/li&gt;
+  &lt;li&gt;&lt;a href="#"&gt;Menu 3&lt;/a&gt;&lt;/li&gt;
+&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>Tabs</t>
+  </si>
+  <si>
+    <t>&lt;ul class="nav nav-tabs"&gt;
+  &lt;li class="active"&gt;&lt;a href="#"&gt;Home&lt;/a&gt;&lt;/li&gt;
+  &lt;li&gt;&lt;a href="#"&gt;Menu 1&lt;/a&gt;&lt;/li&gt;
+  &lt;li&gt;&lt;a href="#"&gt;Menu 2&lt;/a&gt;&lt;/li&gt;
+  &lt;li&gt;&lt;a href="#"&gt;Menu 3&lt;/a&gt;&lt;/li&gt;
+&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>Pills</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;ul class="nav nav-pills"&gt;
+  &lt;li class="active"&gt;&lt;a href="#"&gt;Home&lt;/a&gt;&lt;/li&gt;
+  &lt;li&gt;&lt;a href="#"&gt;Menu 1&lt;/a&gt;&lt;/li&gt;
+  &lt;li&gt;&lt;a href="#"&gt;Menu 2&lt;/a&gt;&lt;/li&gt;
+  &lt;li&gt;&lt;a href="#"&gt;Menu 3&lt;/a&gt;&lt;/li&gt;
+&lt;/ul&gt;
+</t>
+  </si>
+  <si>
+    <t>Centered Tabs and Pills</t>
+  </si>
+  <si>
+    <t>&lt;!-- Centered Tabs --&gt;
+&lt;ul class="nav nav-tabs nav-justified"&gt;
+  &lt;li class="active"&gt;&lt;a href="#"&gt;Home&lt;/a&gt;&lt;/li&gt;
+  &lt;li&gt;&lt;a href="#"&gt;Menu 1&lt;/a&gt;&lt;/li&gt;
+  &lt;li&gt;&lt;a href="#"&gt;Menu 2&lt;/a&gt;&lt;/li&gt;
+  &lt;li&gt;&lt;a href="#"&gt;Menu 3&lt;/a&gt;&lt;/li&gt;
+&lt;/ul&gt;
+&lt;!-- Centered Pills --&gt;
+&lt;ul class="nav nav-pills nav-justified"&gt;
+  &lt;li class="active"&gt;&lt;a href="#"&gt;Home&lt;/a&gt;&lt;/li&gt;
+  &lt;li&gt;&lt;a href="#"&gt;Menu 1&lt;/a&gt;&lt;/li&gt;
+  &lt;li&gt;&lt;a href="#"&gt;Menu 2&lt;/a&gt;&lt;/li&gt;
+  &lt;li&gt;&lt;a href="#"&gt;Menu 3&lt;/a&gt;&lt;/li&gt;
+&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>Collapsing The Navigation Bar</t>
+  </si>
+  <si>
+    <t>&lt;nav class="navbar navbar-inverse"&gt;
+  &lt;div class="container-fluid"&gt;
+    &lt;div class="navbar-header"&gt;
+      &lt;button type="button" class="navbar-toggle" data-toggle="collapse" data-target="#myNavbar"&gt;
+        &lt;span class="icon-bar"&gt;&lt;/span&gt;
+        &lt;span class="icon-bar"&gt;&lt;/span&gt;
+        &lt;span class="icon-bar"&gt;&lt;/span&gt; 
+      &lt;/button&gt;
+      &lt;a class="navbar-brand" href="#"&gt;WebSiteName&lt;/a&gt;
+    &lt;/div&gt;
+    &lt;div class="collapse navbar-collapse" id="myNavbar"&gt;
+      &lt;ul class="nav navbar-nav"&gt;
+        &lt;li class="active"&gt;&lt;a href="#"&gt;Home&lt;/a&gt;&lt;/li&gt;
+        &lt;li&gt;&lt;a href="#"&gt;Page 1&lt;/a&gt;&lt;/li&gt;
+        &lt;li&gt;&lt;a href="#"&gt;Page 2&lt;/a&gt;&lt;/li&gt; 
+        &lt;li&gt;&lt;a href="#"&gt;Page 3&lt;/a&gt;&lt;/li&gt; 
+      &lt;/ul&gt;
+      &lt;ul class="nav navbar-nav navbar-right"&gt;
+        &lt;li&gt;&lt;a href="#"&gt;&lt;span class="glyphicon glyphicon-user"&gt;&lt;/span&gt; Sign Up&lt;/a&gt;&lt;/li&gt;
+        &lt;li&gt;&lt;a href="#"&gt;&lt;span class="glyphicon glyphicon-log-in"&gt;&lt;/span&gt; Login&lt;/a&gt;&lt;/li&gt;
+      &lt;/ul&gt;
+    &lt;/div&gt;
+  &lt;/div&gt;
+&lt;/nav&gt;</t>
+  </si>
+  <si>
+    <t>Forms</t>
+  </si>
+  <si>
+    <t>&lt;form role="form"&gt;
+  &lt;div class="form-group"&gt;
+    &lt;label for="email"&gt;Email address:&lt;/label&gt;
+    &lt;input type="email" class="form-control" id="email"&gt;
+  &lt;/div&gt;
+  &lt;div class="form-group"&gt;
+    &lt;label for="pwd"&gt;Password:&lt;/label&gt;
+    &lt;input type="password" class="form-control" id="pwd"&gt;
+  &lt;/div&gt;
+  &lt;div class="checkbox"&gt;
+    &lt;label&gt;&lt;input type="checkbox"&gt; Remember me&lt;/label&gt;
+  &lt;/div&gt;
+  &lt;button type="submit" class="btn btn-default"&gt;Submit&lt;/button&gt;
+&lt;/form&gt;</t>
+  </si>
+  <si>
+    <t>Horizontal Form</t>
+  </si>
+  <si>
+    <t>&lt;form class="form-horizontal" role="form"&gt;
+  &lt;div class="form-group"&gt;
+    &lt;label class="control-label col-sm-2" for="email"&gt;Email:&lt;/label&gt;
+    &lt;div class="col-sm-10"&gt;
+      &lt;input type="email" class="form-control" id="email" placeholder="Enter email"&gt;
+    &lt;/div&gt;
+  &lt;/div&gt;
+  &lt;div class="form-group"&gt;
+    &lt;label class="control-label col-sm-2" for="pwd"&gt;Password:&lt;/label&gt;
+    &lt;div class="col-sm-10"&gt; 
+      &lt;input type="password" class="form-control" id="pwd" placeholder="Enter password"&gt;
+    &lt;/div&gt;
+  &lt;/div&gt;
+  &lt;div class="form-group"&gt; 
+    &lt;div class="col-sm-offset-2 col-sm-10"&gt;
+      &lt;div class="checkbox"&gt;
+        &lt;label&gt;&lt;input type="checkbox"&gt; Remember me&lt;/label&gt;
+      &lt;/div&gt;
+    &lt;/div&gt;
+  &lt;/div&gt;
+  &lt;div class="form-group"&gt; 
+    &lt;div class="col-sm-offset-2 col-sm-10"&gt;
+      &lt;button type="submit" class="btn btn-default"&gt;Submit&lt;/button&gt;
+    &lt;/div&gt;
+  &lt;/div&gt;
+&lt;/form&gt;</t>
+  </si>
+  <si>
+    <t>Input</t>
+  </si>
+  <si>
+    <t>Textarea</t>
+  </si>
+  <si>
+    <t>Checkboxes</t>
+  </si>
+  <si>
+    <t>Radio Buttons</t>
+  </si>
+  <si>
+    <t>Select List</t>
+  </si>
+  <si>
+    <t>&lt;div class="form-group"&gt;
+  &lt;label for="sel1"&gt;Select list:&lt;/label&gt;
+  &lt;select class="form-control" id="sel1"&gt;
+    &lt;option&gt;1&lt;/option&gt;
+    &lt;option&gt;2&lt;/option&gt;
+    &lt;option&gt;3&lt;/option&gt;
+    &lt;option&gt;4&lt;/option&gt;
+  &lt;/select&gt;
+&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>&lt;label class="radio-inline"&gt;&lt;input type="radio" name="optradio"&gt;Option 1&lt;/label&gt;
+&lt;label class="radio-inline"&gt;&lt;input type="radio" name="optradio"&gt;Option 2&lt;/label&gt;
+&lt;label class="radio-inline"&gt;&lt;input type="radio" name="optradio"&gt;Option 3&lt;/label&gt;</t>
+  </si>
+  <si>
+    <t>&lt;label class="checkbox-inline"&gt;&lt;input type="checkbox" value=""&gt;Option 1&lt;/label&gt;
+&lt;label class="checkbox-inline"&gt;&lt;input type="checkbox" value=""&gt;Option 2&lt;/label&gt;
+&lt;label class="checkbox-inline"&gt;&lt;input type="checkbox" value=""&gt;Option 3&lt;/label&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div class="form-group"&gt;
+  &lt;label for="comment"&gt;Comment:&lt;/label&gt;
+  &lt;textarea class="form-control" rows="5" id="comment"&gt;&lt;/textarea&gt;
+&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div class="form-group"&gt;
+  &lt;label for="usr"&gt;Name:&lt;/label&gt;
+  &lt;input type="text" class="form-control" id="usr"&gt;
+&lt;/div&gt;
+&lt;div class="form-group"&gt;
+  &lt;label for="pwd"&gt;Password:&lt;/label&gt;
+  &lt;input type="password" class="form-control" id="pwd"&gt;
+&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>Carousel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Modal </t>
+  </si>
+  <si>
+    <t>&lt;!-- Trigger the modal with a button --&gt;
+&lt;button type="button" class="btn btn-info btn-lg" data-toggle="modal" data-target="#myModal"&gt;Open Modal&lt;/button&gt;
+&lt;!-- Modal --&gt;
+&lt;div id="myModal" class="modal fade" role="dialog"&gt;
+  &lt;div class="modal-dialog"&gt;
+    &lt;!-- Modal content--&gt;
+    &lt;div class="modal-content"&gt;
+      &lt;div class="modal-header"&gt;
+        &lt;button type="button" class="close" data-dismiss="modal"&gt;&amp;times;&lt;/button&gt;
+        &lt;h4 class="modal-title"&gt;Modal Header&lt;/h4&gt;
+      &lt;/div&gt;
+      &lt;div class="modal-body"&gt;
+        &lt;p&gt;Some text in the modal.&lt;/p&gt;
+      &lt;/div&gt;
+      &lt;div class="modal-footer"&gt;
+        &lt;button type="button" class="btn btn-default" data-dismiss="modal"&gt;Close&lt;/button&gt;
+      &lt;/div&gt;
+    &lt;/div&gt;
+  &lt;/div&gt;
+&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>Language</t>
+  </si>
+  <si>
+    <t>Desc</t>
+  </si>
+  <si>
+    <t>Code Ref</t>
+  </si>
   <si>
     <t xml:space="preserve">&lt;!DOCTYPE html&gt;
 &lt;html&gt;
@@ -112,119 +732,7 @@
 &lt;/body&gt;
 &lt;/html&gt;
 </t>
-  </si>
-  <si>
-    <t>bootstrap</t>
-  </si>
-  <si>
-    <t>Scrollspy &amp; Affix Horizontal Menu (Navbar)</t>
-  </si>
-  <si>
-    <t>head</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> &lt;link rel="stylesheet" href="http://maxcdn.bootstrapcdn.com/bootstrap/3.3.6/css/bootstrap.min.css"&gt;
-  &lt;script src="https://ajax.googleapis.com/ajax/libs/jquery/1.12.0/jquery.min.js"&gt;&lt;/script&gt;
-  &lt;script src="http://maxcdn.bootstrapcdn.com/bootstrap/3.3.6/js/bootstrap.min.js"&gt;&lt;/script&gt;
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-&lt;div class="container-fluid"&gt;
-  &lt;h1&gt;Hello World!&lt;/h1&gt;
-  &lt;p&gt;Resize the browser window to see the effect.&lt;/p&gt;
-  &lt;div class="row"&gt;
-    &lt;div class="col-sm-4" style="background-color:lavender;"&gt;.col-sm-4&lt;/div&gt;
-    &lt;div class="col-sm-4" style="background-color:lavenderblush;"&gt;.col-sm-4&lt;/div&gt;
-    &lt;div class="col-sm-4" style="background-color:lavender;"&gt;.col-sm-4&lt;/div&gt;
-  &lt;/div&gt;
-&lt;/div&gt;</t>
-  </si>
-  <si>
-    <t>grid system</t>
-  </si>
-  <si>
-    <t>hover table</t>
-  </si>
-  <si>
-    <t>&lt;div class="container"&gt;
-  &lt;h2&gt;Hover Rows&lt;/h2&gt;
-  &lt;p&gt;The .table-hover class enables a hover state on table rows:&lt;/p&gt;            
-  &lt;table class="table table-hover"&gt;
-    &lt;thead&gt;
-      &lt;tr&gt;
-        &lt;th&gt;Firstname&lt;/th&gt;
-        &lt;th&gt;Lastname&lt;/th&gt;
-        &lt;th&gt;Email&lt;/th&gt;
-      &lt;/tr&gt;
-    &lt;/thead&gt;
-    &lt;tbody&gt;
-      &lt;tr&gt;
-        &lt;td&gt;John&lt;/td&gt;
-        &lt;td&gt;Doe&lt;/td&gt;
-        &lt;td&gt;john@example.com&lt;/td&gt;
-      &lt;/tr&gt;
-      &lt;tr&gt;
-        &lt;td&gt;Mary&lt;/td&gt;
-        &lt;td&gt;Moe&lt;/td&gt;
-        &lt;td&gt;mary@example.com&lt;/td&gt;
-      &lt;/tr&gt;
-      &lt;tr&gt;
-        &lt;td&gt;July&lt;/td&gt;
-        &lt;td&gt;Dooley&lt;/td&gt;
-        &lt;td&gt;july@example.com&lt;/td&gt;
-      &lt;/tr&gt;
-    &lt;/tbody&gt;
-  &lt;/table&gt;
-&lt;/div&gt;</t>
-  </si>
-  <si>
-    <t>&lt;div class="container"&gt;
-  &lt;h2&gt;Image&lt;/h2&gt;
-  &lt;p&gt;The .img-responsive class makes the image scale nicely to the parent element (resize the browser window to see the effect):&lt;/p&gt;
-  &lt;img class="img-responsive" src="img_chania.jpg" alt="Chania" width="460" height="345"&gt; 
-&lt;/div&gt;</t>
-  </si>
-  <si>
-    <t>responsive img</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-&lt;div class="container"&gt;
-  &lt;h2&gt;Circle&lt;/h2&gt;
-  &lt;p&gt;The .img-circle class shapes the image to a circle (not available in IE8):&lt;/p&gt;            
-  &lt;img src="cinqueterre.jpg" class="img-circle" alt="Cinque Terre" width="304" height="236"&gt; 
-&lt;/div&gt;</t>
-  </si>
-  <si>
-    <t>circle img</t>
-  </si>
-  <si>
-    <t>responsive iframe</t>
-  </si>
-  <si>
-    <t>&lt;div class="container"&gt;
-  &lt;h2&gt;Responsive Embed&lt;/h2&gt;
-  &lt;div class="embed-responsive embed-responsive-16by9"&gt;
-    &lt;iframe class="embed-responsive-item" src="http://www.youtube.com/embed/XGSy3_Czz8k"&gt;&lt;/iframe&gt;
-  &lt;/div&gt;
-&lt;/div&gt;</t>
-  </si>
-  <si>
-    <t>Jumbotron</t>
-  </si>
-  <si>
-    <t>Page Header</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-&lt;div class="container"&gt;
-  &lt;div class="page-header"&gt;
-    &lt;h1&gt;Example Page Header&lt;/h1&gt;      
-  &lt;/div&gt;
-  &lt;p&gt;This is some text.&lt;/p&gt;      
-  &lt;p&gt;This is another text.&lt;/p&gt;      
-&lt;/div&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">
@@ -236,167 +744,7 @@
   &lt;p&gt;This is some text.&lt;/p&gt;      
   &lt;p&gt;This is another text.&lt;/p&gt;      
 &lt;/div&gt;</t>
-  </si>
-  <si>
-    <t>&lt;div class="well well-sm"&gt;Small Well&lt;/div&gt;
-&lt;div class="well well-lg"&gt;Large Well&lt;/div&gt;</t>
-  </si>
-  <si>
-    <t>Well</t>
-  </si>
-  <si>
-    <t>&lt;div class="container"&gt;
-  &lt;h2&gt;Alerts&lt;/h2&gt;
-  &lt;p&gt;The a element with class="close" and data-dismiss="alert" is used to close the alert box.&lt;/p&gt;
-  &lt;div class="alert alert-success"&gt;
-    &lt;a href="#" class="close" data-dismiss="alert" aria-label="close"&gt;&amp;times;&lt;/a&gt;
-    &lt;strong&gt;Success!&lt;/strong&gt; This alert box could indicate a successful or positive action.
-  &lt;/div&gt;
-  &lt;div class="alert alert-info"&gt;
-    &lt;a href="#" class="close" data-dismiss="alert" aria-label="close"&gt;&amp;times;&lt;/a&gt;
-    &lt;strong&gt;Info!&lt;/strong&gt; This alert box could indicate a neutral informative change or action.
-  &lt;/div&gt;
-  &lt;div class="alert alert-warning"&gt;
-    &lt;a href="#" class="close" data-dismiss="alert" aria-label="close"&gt;&amp;times;&lt;/a&gt;
-    &lt;strong&gt;Warning!&lt;/strong&gt; This alert box could indicate a warning that might need attention.
-  &lt;/div&gt;
-  &lt;div class="alert alert-danger"&gt;
-    &lt;a href="#" class="close" data-dismiss="alert" aria-label="close"&gt;&amp;times;&lt;/a&gt;
-    &lt;strong&gt;Danger!&lt;/strong&gt; This alert box could indicate a dangerous or potentially negative action.
-  &lt;/div&gt;
-&lt;/div&gt;</t>
-  </si>
-  <si>
-    <t>Close alert</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-&lt;div class="container"&gt;
-  &lt;h2&gt;Alerts&lt;/h2&gt;
-  &lt;p&gt;The .fade and .in classes adds a fading effect when closing the alert message.&lt;/p&gt;
-  &lt;div class="alert alert-success fade in"&gt;
-    &lt;a href="#" class="close" data-dismiss="alert" aria-label="close"&gt;&amp;times;&lt;/a&gt;
-    &lt;strong&gt;Success!&lt;/strong&gt; This alert box could indicate a successful or positive action.
-  &lt;/div&gt;
-  &lt;div class="alert alert-info fade in"&gt;
-    &lt;a href="#" class="close" data-dismiss="alert" aria-label="close"&gt;&amp;times;&lt;/a&gt;
-    &lt;strong&gt;Info!&lt;/strong&gt; This alert box could indicate a neutral informative change or action.
-  &lt;/div&gt;
-  &lt;div class="alert alert-warning fade in"&gt;
-    &lt;a href="#" class="close" data-dismiss="alert" aria-label="close"&gt;&amp;times;&lt;/a&gt;
-    &lt;strong&gt;Warning!&lt;/strong&gt; This alert box could indicate a warning that might need attention.
-  &lt;/div&gt;
-  &lt;div class="alert alert-danger fade in"&gt;
-    &lt;a href="#" class="close" data-dismiss="alert" aria-label="close"&gt;&amp;times;&lt;/a&gt;
-    &lt;strong&gt;Danger!&lt;/strong&gt; This alert box could indicate a dangerous or potentially negative action.
-  &lt;/div&gt;
-&lt;/div&gt;
-</t>
-  </si>
-  <si>
-    <t>Animated Alert</t>
-  </si>
-  <si>
-    <t>&lt;button type="button" class="btn btn-default"&gt;Default&lt;/button&gt;
-&lt;button type="button" class="btn btn-primary"&gt;Primary&lt;/button&gt;
-&lt;button type="button" class="btn btn-success"&gt;Success&lt;/button&gt;
-&lt;button type="button" class="btn btn-info"&gt;Info&lt;/button&gt;
-&lt;button type="button" class="btn btn-warning"&gt;Warning&lt;/button&gt;
-&lt;button type="button" class="btn btn-danger"&gt;Danger&lt;/button&gt;
-&lt;button type="button" class="btn btn-link"&gt;Link&lt;/button&gt;</t>
-  </si>
-  <si>
-    <t>button w .btn</t>
-  </si>
-  <si>
-    <t>Nesting Button Groups &amp; Dropdown Menus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-&lt;div class="container"&gt;
-  &lt;h2&gt;Nesting Button Groups&lt;/h2&gt;
-  &lt;p&gt;Nest button groups to create drop down menus:&lt;/p&gt;
-  &lt;div class="btn-group"&gt;
-    &lt;button type="button" class="btn btn-primary"&gt;Apple&lt;/button&gt;
-    &lt;button type="button" class="btn btn-primary"&gt;Samsung&lt;/button&gt;
-    &lt;div class="btn-group"&gt;
-      &lt;button type="button" class="btn btn-primary dropdown-toggle" data-toggle="dropdown"&gt;
-      Sony &lt;span class="caret"&gt;&lt;/span&gt;&lt;/button&gt;
-      &lt;ul class="dropdown-menu" role="menu"&gt;
-        &lt;li&gt;&lt;a href="#"&gt;Tablet&lt;/a&gt;&lt;/li&gt;
-        &lt;li&gt;&lt;a href="#"&gt;Smartphone&lt;/a&gt;&lt;/li&gt;
-      &lt;/ul&gt;
-    &lt;/div&gt;
-  &lt;/div&gt;
-&lt;/div&gt;</t>
-  </si>
-  <si>
-    <t>Badges</t>
-  </si>
-  <si>
-    <t>&lt;a href="#"&gt;News &lt;span class="badge"&gt;5&lt;/span&gt;&lt;/a&gt;&lt;br&gt;
-&lt;a href="#"&gt;Comments &lt;span class="badge"&gt;10&lt;/span&gt;&lt;/a&gt;&lt;br&gt;
-&lt;a href="#"&gt;Updates &lt;span class="badge"&gt;2&lt;/span&gt;&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>Labels</t>
-  </si>
-  <si>
-    <t>&lt;h1&gt;Example &lt;span class="label label-default"&gt;New&lt;/span&gt;&lt;/h1&gt;
-&lt;h2&gt;Example &lt;span class="label label-default"&gt;New&lt;/span&gt;&lt;/h2&gt;
-&lt;h3&gt;Example &lt;span class="label label-default"&gt;New&lt;/span&gt;&lt;/h3&gt;
-&lt;h4&gt;Example &lt;span class="label label-default"&gt;New&lt;/span&gt;&lt;/h4&gt;
-&lt;h5&gt;Example &lt;span class="label label-default"&gt;New&lt;/span&gt;&lt;/h5&gt;
-&lt;h6&gt;Example &lt;span class="label label-default"&gt;New&lt;/span&gt;&lt;/h6&gt;
-&lt;span class="label label-default"&gt;Default Label&lt;/span&gt;
-&lt;span class="label label-primary"&gt;Primary Label&lt;/span&gt;
-&lt;span class="label label-success"&gt;Success Label&lt;/span&gt;
-&lt;span class="label label-info"&gt;Info Label&lt;/span&gt;
-&lt;span class="label label-warning"&gt;Warning Label&lt;/span&gt;
-&lt;span class="label label-danger"&gt;Danger Label&lt;/span&gt;</t>
-  </si>
-  <si>
-    <t>Striped Progress Bars</t>
-  </si>
-  <si>
-    <t>&lt;div class="progress"&gt;
-  &lt;div class="progress-bar progress-bar-success progress-bar-striped" role="progressbar"
-  aria-valuenow="40" aria-valuemin="0" aria-valuemax="100" style="width:40%"&gt;
-    40% Complete (success)
-  &lt;/div&gt;
-&lt;/div&gt;
-&lt;div class="progress"&gt;
-  &lt;div class="progress-bar progress-bar-info progress-bar-striped" role="progressbar"
-  aria-valuenow="50" aria-valuemin="0" aria-valuemax="100" style="width:50%"&gt;
-    50% Complete (info)
-  &lt;/div&gt;
-&lt;/div&gt;
-&lt;div class="progress"&gt;
-  &lt;div class="progress-bar progress-bar-warning progress-bar-striped" role="progressbar"
-  aria-valuenow="60" aria-valuemin="0" aria-valuemax="100" style="width:60%"&gt;
-    60% Complete (warning)
-  &lt;/div&gt;
-&lt;/div&gt;
-&lt;div class="progress"&gt;
-  &lt;div class="progress-bar progress-bar-danger progress-bar-striped" role="progressbar"
-  aria-valuenow="70" aria-valuemin="0" aria-valuemax="100" style="width:70%"&gt;
-    70% Complete (danger)
-  &lt;/div&gt;
-&lt;/div&gt;</t>
-  </si>
-  <si>
-    <t>Animated Progress Bar</t>
-  </si>
-  <si>
-    <t>&lt;div class="progress"&gt;
-  &lt;div class="progress-bar progress-bar-striped active" role="progressbar"
-  aria-valuenow="40" aria-valuemin="0" aria-valuemax="100" style="width:40%"&gt;
-    40%
-  &lt;/div&gt;
-&lt;/div&gt;</t>
-  </si>
-  <si>
-    <t>Pagination w Active State</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>&lt;ul class="pagination"&gt;
@@ -406,327 +754,22 @@
   &lt;li&gt;&lt;a href="#"&gt;4&lt;/a&gt;&lt;/li&gt;
   &lt;li&gt;&lt;a href="#"&gt;5&lt;/a&gt;&lt;/li&gt;
 &lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t>Pager</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>&lt;ul class="pager"&gt;
   &lt;li class="previous"&gt;&lt;a href="#"&gt;Previous&lt;/a&gt;&lt;/li&gt;
   &lt;li class="next"&gt;&lt;a href="#"&gt;Next&lt;/a&gt;&lt;/li&gt;
 &lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t>Basic List Groups</t>
-  </si>
-  <si>
-    <t>&lt;ul class="list-group"&gt;
-  &lt;li class="list-group-item"&gt;First item&lt;/li&gt;
-  &lt;li class="list-group-item"&gt;Second item&lt;/li&gt;
-  &lt;li class="list-group-item"&gt;Third item&lt;/li&gt;
-&lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t>Panels</t>
-  </si>
-  <si>
-    <t>&lt;div class="panel panel-default"&gt;
- &lt;div class="panel-heading"&gt;Panel Heading&lt;/div&gt;
-  &lt;div class="panel-body"&gt;Panel Content&lt;/div&gt;
-  &lt;div class="panel-footer"&gt;Panel Footer&lt;/div&gt;
-&lt;/div&gt;</t>
-  </si>
-  <si>
-    <t>Panels with Contextual Classes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-&lt;div class="container"&gt;
-  &lt;h2&gt;Panels with Contextual Classes&lt;/h2&gt;
-  &lt;div class="panel-group"&gt;
-    &lt;div class="panel panel-default"&gt;
-      &lt;div class="panel-heading"&gt;Panel with panel-default class&lt;/div&gt;
-      &lt;div class="panel-body"&gt;Panel Content&lt;/div&gt;
-    &lt;/div&gt;
-    &lt;div class="panel panel-primary"&gt;
-      &lt;div class="panel-heading"&gt;Panel with panel-primary class&lt;/div&gt;
-      &lt;div class="panel-body"&gt;Panel Content&lt;/div&gt;
-    &lt;/div&gt;
-    &lt;div class="panel panel-success"&gt;
-      &lt;div class="panel-heading"&gt;Panel with panel-success class&lt;/div&gt;
-      &lt;div class="panel-body"&gt;Panel Content&lt;/div&gt;
-    &lt;/div&gt;
-    &lt;div class="panel panel-info"&gt;
-      &lt;div class="panel-heading"&gt;Panel with panel-info class&lt;/div&gt;
-      &lt;div class="panel-body"&gt;Panel Content&lt;/div&gt;
-    &lt;/div&gt;
-    &lt;div class="panel panel-warning"&gt;
-      &lt;div class="panel-heading"&gt;Panel with panel-warning class&lt;/div&gt;
-      &lt;div class="panel-body"&gt;Panel Content&lt;/div&gt;
-    &lt;/div&gt;
-    &lt;div class="panel panel-danger"&gt;
-      &lt;div class="panel-heading"&gt;Panel with panel-danger class&lt;/div&gt;
-      &lt;div class="panel-body"&gt;Panel Content&lt;/div&gt;
-    &lt;/div&gt;
-  &lt;/div&gt;
-&lt;/div&gt;</t>
-  </si>
-  <si>
-    <t>Dropdown</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-&lt;div class="container"&gt;
-  &lt;h2&gt;Dropdowns&lt;/h2&gt;
-  &lt;p&gt;The .dropdown-header class is used to add headers inside the dropdown menu:&lt;/p&gt;
-  &lt;div class="dropdown"&gt;
-    &lt;button class="btn btn-default dropdown-toggle" type="button" data-toggle="dropdown"&gt;Tutorials
-    &lt;span class="caret"&gt;&lt;/span&gt;&lt;/button&gt;
-    &lt;ul class="dropdown-menu"&gt;
-      &lt;li class="dropdown-header"&gt;Dropdown header 1&lt;/li&gt;
-      &lt;li&gt;&lt;a href="#"&gt;HTML&lt;/a&gt;&lt;/li&gt;
-      &lt;li&gt;&lt;a href="#"&gt;CSS&lt;/a&gt;&lt;/li&gt;
-      &lt;li&gt;&lt;a href="#"&gt;JavaScript&lt;/a&gt;&lt;/li&gt;
-      &lt;li class="divider"&gt;&lt;/li&gt;
-      &lt;li class="dropdown-header"&gt;Dropdown header 2&lt;/li&gt;
-      &lt;li&gt;&lt;a href="#"&gt;About Us&lt;/a&gt;&lt;/li&gt;
-    &lt;/ul&gt;
-  &lt;/div&gt;
-&lt;/div&gt;
-</t>
-  </si>
-  <si>
-    <t>Accordion (Collopse Panel)</t>
-  </si>
-  <si>
-    <t>&lt;div class="panel-group" id="accordion"&gt;
-  &lt;div class="panel panel-default"&gt;
-    &lt;div class="panel-heading"&gt;
-      &lt;h4 class="panel-title"&gt;
-        &lt;a data-toggle="collapse" data-parent="#accordion" href="#collapse1"&gt;
-        Collapsible Group 1&lt;/a&gt;
-      &lt;/h4&gt;
-    &lt;/div&gt;
-    &lt;div id="collapse1" class="panel-collapse collapse in"&gt;
-      &lt;div class="panel-body"&gt;Lorem ipsum dolor sit amet, consectetur adipisicing elit,
-      sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Ut enim ad
-      minim veniam, quis nostrud exercitation ullamco laboris nisi ut aliquip ex ea
-      commodo consequat.&lt;/div&gt;
-    &lt;/div&gt;
-  &lt;/div&gt;
-  &lt;div class="panel panel-default"&gt;
-    &lt;div class="panel-heading"&gt;
-      &lt;h4 class="panel-title"&gt;
-        &lt;a data-toggle="collapse" data-parent="#accordion" href="#collapse2"&gt;
-        Collapsible Group 2&lt;/a&gt;
-      &lt;/h4&gt;
-    &lt;/div&gt;
-    &lt;div id="collapse2" class="panel-collapse collapse"&gt;
-      &lt;div class="panel-body"&gt;Lorem ipsum dolor sit amet, consectetur adipisicing elit,
-      sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Ut enim ad
-      minim veniam, quis nostrud exercitation ullamco laboris nisi ut aliquip ex ea
-      commodo consequat.&lt;/div&gt;
-    &lt;/div&gt;
-  &lt;/div&gt;
-  &lt;div class="panel panel-default"&gt;
-    &lt;div class="panel-heading"&gt;
-      &lt;h4 class="panel-title"&gt;
-        &lt;a data-toggle="collapse" data-parent="#accordion" href="#collapse3"&gt;
-        Collapsible Group 3&lt;/a&gt;
-      &lt;/h4&gt;
-    &lt;/div&gt;
-    &lt;div id="collapse3" class="panel-collapse collapse"&gt;
-      &lt;div class="panel-body"&gt;Lorem ipsum dolor sit amet, consectetur adipisicing elit,
-      sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Ut enim ad
-      minim veniam, quis nostrud exercitation ullamco laboris nisi ut aliquip ex ea
-      commodo consequat.&lt;/div&gt;
-    &lt;/div&gt;
-  &lt;/div&gt;
-&lt;/div&gt;</t>
-  </si>
-  <si>
-    <t>Menus</t>
-  </si>
-  <si>
-    <t>&lt;ul&gt;
-  &lt;li&gt;&lt;a href="#"&gt;Home&lt;/a&gt;&lt;/li&gt;
-  &lt;li&gt;&lt;a href="#"&gt;Menu 1&lt;/a&gt;&lt;/li&gt;
-  &lt;li&gt;&lt;a href="#"&gt;Menu 2&lt;/a&gt;&lt;/li&gt;
-  &lt;li&gt;&lt;a href="#"&gt;Menu 3&lt;/a&gt;&lt;/li&gt;
-&lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t>Tabs</t>
-  </si>
-  <si>
-    <t>&lt;ul class="nav nav-tabs"&gt;
-  &lt;li class="active"&gt;&lt;a href="#"&gt;Home&lt;/a&gt;&lt;/li&gt;
-  &lt;li&gt;&lt;a href="#"&gt;Menu 1&lt;/a&gt;&lt;/li&gt;
-  &lt;li&gt;&lt;a href="#"&gt;Menu 2&lt;/a&gt;&lt;/li&gt;
-  &lt;li&gt;&lt;a href="#"&gt;Menu 3&lt;/a&gt;&lt;/li&gt;
-&lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t>Pills</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;ul class="nav nav-pills"&gt;
-  &lt;li class="active"&gt;&lt;a href="#"&gt;Home&lt;/a&gt;&lt;/li&gt;
-  &lt;li&gt;&lt;a href="#"&gt;Menu 1&lt;/a&gt;&lt;/li&gt;
-  &lt;li&gt;&lt;a href="#"&gt;Menu 2&lt;/a&gt;&lt;/li&gt;
-  &lt;li&gt;&lt;a href="#"&gt;Menu 3&lt;/a&gt;&lt;/li&gt;
-&lt;/ul&gt;
-</t>
-  </si>
-  <si>
-    <t>Centered Tabs and Pills</t>
-  </si>
-  <si>
-    <t>&lt;!-- Centered Tabs --&gt;
-&lt;ul class="nav nav-tabs nav-justified"&gt;
-  &lt;li class="active"&gt;&lt;a href="#"&gt;Home&lt;/a&gt;&lt;/li&gt;
-  &lt;li&gt;&lt;a href="#"&gt;Menu 1&lt;/a&gt;&lt;/li&gt;
-  &lt;li&gt;&lt;a href="#"&gt;Menu 2&lt;/a&gt;&lt;/li&gt;
-  &lt;li&gt;&lt;a href="#"&gt;Menu 3&lt;/a&gt;&lt;/li&gt;
-&lt;/ul&gt;
-&lt;!-- Centered Pills --&gt;
-&lt;ul class="nav nav-pills nav-justified"&gt;
-  &lt;li class="active"&gt;&lt;a href="#"&gt;Home&lt;/a&gt;&lt;/li&gt;
-  &lt;li&gt;&lt;a href="#"&gt;Menu 1&lt;/a&gt;&lt;/li&gt;
-  &lt;li&gt;&lt;a href="#"&gt;Menu 2&lt;/a&gt;&lt;/li&gt;
-  &lt;li&gt;&lt;a href="#"&gt;Menu 3&lt;/a&gt;&lt;/li&gt;
-&lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t>Collapsing The Navigation Bar</t>
-  </si>
-  <si>
-    <t>&lt;nav class="navbar navbar-inverse"&gt;
-  &lt;div class="container-fluid"&gt;
-    &lt;div class="navbar-header"&gt;
-      &lt;button type="button" class="navbar-toggle" data-toggle="collapse" data-target="#myNavbar"&gt;
-        &lt;span class="icon-bar"&gt;&lt;/span&gt;
-        &lt;span class="icon-bar"&gt;&lt;/span&gt;
-        &lt;span class="icon-bar"&gt;&lt;/span&gt; 
-      &lt;/button&gt;
-      &lt;a class="navbar-brand" href="#"&gt;WebSiteName&lt;/a&gt;
-    &lt;/div&gt;
-    &lt;div class="collapse navbar-collapse" id="myNavbar"&gt;
-      &lt;ul class="nav navbar-nav"&gt;
-        &lt;li class="active"&gt;&lt;a href="#"&gt;Home&lt;/a&gt;&lt;/li&gt;
-        &lt;li&gt;&lt;a href="#"&gt;Page 1&lt;/a&gt;&lt;/li&gt;
-        &lt;li&gt;&lt;a href="#"&gt;Page 2&lt;/a&gt;&lt;/li&gt; 
-        &lt;li&gt;&lt;a href="#"&gt;Page 3&lt;/a&gt;&lt;/li&gt; 
-      &lt;/ul&gt;
-      &lt;ul class="nav navbar-nav navbar-right"&gt;
-        &lt;li&gt;&lt;a href="#"&gt;&lt;span class="glyphicon glyphicon-user"&gt;&lt;/span&gt; Sign Up&lt;/a&gt;&lt;/li&gt;
-        &lt;li&gt;&lt;a href="#"&gt;&lt;span class="glyphicon glyphicon-log-in"&gt;&lt;/span&gt; Login&lt;/a&gt;&lt;/li&gt;
-      &lt;/ul&gt;
-    &lt;/div&gt;
-  &lt;/div&gt;
-&lt;/nav&gt;</t>
-  </si>
-  <si>
-    <t>Forms</t>
-  </si>
-  <si>
-    <t>&lt;form role="form"&gt;
-  &lt;div class="form-group"&gt;
-    &lt;label for="email"&gt;Email address:&lt;/label&gt;
-    &lt;input type="email" class="form-control" id="email"&gt;
-  &lt;/div&gt;
-  &lt;div class="form-group"&gt;
-    &lt;label for="pwd"&gt;Password:&lt;/label&gt;
-    &lt;input type="password" class="form-control" id="pwd"&gt;
-  &lt;/div&gt;
-  &lt;div class="checkbox"&gt;
-    &lt;label&gt;&lt;input type="checkbox"&gt; Remember me&lt;/label&gt;
-  &lt;/div&gt;
-  &lt;button type="submit" class="btn btn-default"&gt;Submit&lt;/button&gt;
-&lt;/form&gt;</t>
-  </si>
-  <si>
-    <t>Horizontal Form</t>
-  </si>
-  <si>
-    <t>&lt;form class="form-horizontal" role="form"&gt;
-  &lt;div class="form-group"&gt;
-    &lt;label class="control-label col-sm-2" for="email"&gt;Email:&lt;/label&gt;
-    &lt;div class="col-sm-10"&gt;
-      &lt;input type="email" class="form-control" id="email" placeholder="Enter email"&gt;
-    &lt;/div&gt;
-  &lt;/div&gt;
-  &lt;div class="form-group"&gt;
-    &lt;label class="control-label col-sm-2" for="pwd"&gt;Password:&lt;/label&gt;
-    &lt;div class="col-sm-10"&gt; 
-      &lt;input type="password" class="form-control" id="pwd" placeholder="Enter password"&gt;
-    &lt;/div&gt;
-  &lt;/div&gt;
-  &lt;div class="form-group"&gt; 
-    &lt;div class="col-sm-offset-2 col-sm-10"&gt;
-      &lt;div class="checkbox"&gt;
-        &lt;label&gt;&lt;input type="checkbox"&gt; Remember me&lt;/label&gt;
-      &lt;/div&gt;
-    &lt;/div&gt;
-  &lt;/div&gt;
-  &lt;div class="form-group"&gt; 
-    &lt;div class="col-sm-offset-2 col-sm-10"&gt;
-      &lt;button type="submit" class="btn btn-default"&gt;Submit&lt;/button&gt;
-    &lt;/div&gt;
-  &lt;/div&gt;
-&lt;/form&gt;</t>
-  </si>
-  <si>
-    <t>Input</t>
-  </si>
-  <si>
-    <t>Textarea</t>
-  </si>
-  <si>
-    <t>Checkboxes</t>
-  </si>
-  <si>
-    <t>Radio Buttons</t>
-  </si>
-  <si>
-    <t>Select List</t>
-  </si>
-  <si>
-    <t>&lt;div class="form-group"&gt;
-  &lt;label for="sel1"&gt;Select list:&lt;/label&gt;
-  &lt;select class="form-control" id="sel1"&gt;
-    &lt;option&gt;1&lt;/option&gt;
-    &lt;option&gt;2&lt;/option&gt;
-    &lt;option&gt;3&lt;/option&gt;
-    &lt;option&gt;4&lt;/option&gt;
-  &lt;/select&gt;
-&lt;/div&gt;</t>
-  </si>
-  <si>
-    <t>&lt;label class="radio-inline"&gt;&lt;input type="radio" name="optradio"&gt;Option 1&lt;/label&gt;
-&lt;label class="radio-inline"&gt;&lt;input type="radio" name="optradio"&gt;Option 2&lt;/label&gt;
-&lt;label class="radio-inline"&gt;&lt;input type="radio" name="optradio"&gt;Option 3&lt;/label&gt;</t>
-  </si>
-  <si>
-    <t>&lt;label class="checkbox-inline"&gt;&lt;input type="checkbox" value=""&gt;Option 1&lt;/label&gt;
-&lt;label class="checkbox-inline"&gt;&lt;input type="checkbox" value=""&gt;Option 2&lt;/label&gt;
-&lt;label class="checkbox-inline"&gt;&lt;input type="checkbox" value=""&gt;Option 3&lt;/label&gt;</t>
-  </si>
-  <si>
-    <t>&lt;div class="form-group"&gt;
-  &lt;label for="comment"&gt;Comment:&lt;/label&gt;
-  &lt;textarea class="form-control" rows="5" id="comment"&gt;&lt;/textarea&gt;
-&lt;/div&gt;</t>
-  </si>
-  <si>
-    <t>&lt;div class="form-group"&gt;
-  &lt;label for="usr"&gt;Name:&lt;/label&gt;
-  &lt;input type="text" class="form-control" id="usr"&gt;
-&lt;/div&gt;
-&lt;div class="form-group"&gt;
-  &lt;label for="pwd"&gt;Password:&lt;/label&gt;
-  &lt;input type="password" class="form-control" id="pwd"&gt;
-&lt;/div&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pager 適用於story-entry</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pagination w Active State 適用於story-list</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>&lt;div id="myCarousel" class="carousel slide" data-ride="carousel"&gt;
@@ -762,43 +805,15 @@
     &lt;span class="sr-only"&gt;Next&lt;/span&gt;
   &lt;/a&gt;
 &lt;/div&gt;</t>
-  </si>
-  <si>
-    <t>Carousel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Modal </t>
-  </si>
-  <si>
-    <t>&lt;!-- Trigger the modal with a button --&gt;
-&lt;button type="button" class="btn btn-info btn-lg" data-toggle="modal" data-target="#myModal"&gt;Open Modal&lt;/button&gt;
-&lt;!-- Modal --&gt;
-&lt;div id="myModal" class="modal fade" role="dialog"&gt;
-  &lt;div class="modal-dialog"&gt;
-    &lt;!-- Modal content--&gt;
-    &lt;div class="modal-content"&gt;
-      &lt;div class="modal-header"&gt;
-        &lt;button type="button" class="close" data-dismiss="modal"&gt;&amp;times;&lt;/button&gt;
-        &lt;h4 class="modal-title"&gt;Modal Header&lt;/h4&gt;
-      &lt;/div&gt;
-      &lt;div class="modal-body"&gt;
-        &lt;p&gt;Some text in the modal.&lt;/p&gt;
-      &lt;/div&gt;
-      &lt;div class="modal-footer"&gt;
-        &lt;button type="button" class="btn btn-default" data-dismiss="modal"&gt;Close&lt;/button&gt;
-      &lt;/div&gt;
-    &lt;/div&gt;
-  &lt;/div&gt;
-&lt;/div&gt;</t>
-  </si>
-  <si>
-    <t>Language</t>
-  </si>
-  <si>
-    <t>Desc</t>
-  </si>
-  <si>
-    <t>Code Ref</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;span class="glyphicon glyphicon-chevron-left" aria-hidden="true"&gt;&lt;/span&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Little logo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1176,7 +1191,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="C10" workbookViewId="0">
+      <selection activeCell="C41" sqref="C41"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="39" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1187,457 +1204,463 @@
   <sheetData>
     <row r="1" spans="1:3" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>2</v>
-      </c>
       <c r="C3" s="1" t="s">
-        <v>0</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>18</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B15" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B16" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B17" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B18" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B19" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B20" t="s">
-        <v>37</v>
+        <v>80</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B21" t="s">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>40</v>
+        <v>78</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B22" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B23" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B24" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B25" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B26" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B27" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B28" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/bootstrap_lib.xlsx
+++ b/bootstrap_lib.xlsx
@@ -188,15 +188,6 @@
   </si>
   <si>
     <t>Animated Alert</t>
-  </si>
-  <si>
-    <t>&lt;button type="button" class="btn btn-default"&gt;Default&lt;/button&gt;
-&lt;button type="button" class="btn btn-primary"&gt;Primary&lt;/button&gt;
-&lt;button type="button" class="btn btn-success"&gt;Success&lt;/button&gt;
-&lt;button type="button" class="btn btn-info"&gt;Info&lt;/button&gt;
-&lt;button type="button" class="btn btn-warning"&gt;Warning&lt;/button&gt;
-&lt;button type="button" class="btn btn-danger"&gt;Danger&lt;/button&gt;
-&lt;button type="button" class="btn btn-link"&gt;Link&lt;/button&gt;</t>
   </si>
   <si>
     <t>button w .btn</t>
@@ -808,11 +799,21 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>Little logo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t xml:space="preserve"> &lt;span class="glyphicon glyphicon-chevron-left" aria-hidden="true"&gt;&lt;/span&gt;</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Little logo</t>
+    <t>&lt;button type="button" class="btn btn-default"&gt;Default&lt;/button&gt;
+&lt;button type="button" class="btn btn-primary"&gt;Primary&lt;/button&gt;
+&lt;button type="button" class="btn btn-success"&gt;Success&lt;/button&gt;
+&lt;button type="button" class="btn btn-info"&gt;Info&lt;/button&gt;
+&lt;button type="button" class="btn btn-warning"&gt;Warning&lt;/button&gt;
+&lt;button type="button" class="btn btn-danger"&gt;Danger&lt;/button&gt;
+&lt;button type="button" class="btn btn-link"&gt;Link&lt;/button&gt;</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1191,8 +1192,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C10" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="39" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1204,13 +1205,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>73</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="39" customHeight="1" x14ac:dyDescent="0.25">
@@ -1232,7 +1233,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="39" customHeight="1" x14ac:dyDescent="0.25">
@@ -1298,7 +1299,7 @@
         <v>14</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="39" customHeight="1" x14ac:dyDescent="0.25">
@@ -1350,10 +1351,10 @@
         <v>0</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>23</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="39" customHeight="1" x14ac:dyDescent="0.25">
@@ -1361,10 +1362,10 @@
         <v>0</v>
       </c>
       <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="39" customHeight="1" x14ac:dyDescent="0.25">
@@ -1372,10 +1373,10 @@
         <v>0</v>
       </c>
       <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="39" customHeight="1" x14ac:dyDescent="0.25">
@@ -1383,10 +1384,10 @@
         <v>0</v>
       </c>
       <c r="B17" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="39" customHeight="1" x14ac:dyDescent="0.25">
@@ -1394,10 +1395,10 @@
         <v>0</v>
       </c>
       <c r="B18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="39" customHeight="1" x14ac:dyDescent="0.25">
@@ -1405,10 +1406,10 @@
         <v>0</v>
       </c>
       <c r="B19" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="39" customHeight="1" x14ac:dyDescent="0.25">
@@ -1416,10 +1417,10 @@
         <v>0</v>
       </c>
       <c r="B20" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="39" customHeight="1" x14ac:dyDescent="0.25">
@@ -1427,10 +1428,10 @@
         <v>0</v>
       </c>
       <c r="B21" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="39" customHeight="1" x14ac:dyDescent="0.25">
@@ -1438,10 +1439,10 @@
         <v>0</v>
       </c>
       <c r="B22" t="s">
+        <v>34</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="39" customHeight="1" x14ac:dyDescent="0.25">
@@ -1449,10 +1450,10 @@
         <v>0</v>
       </c>
       <c r="B23" t="s">
+        <v>36</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="39" customHeight="1" x14ac:dyDescent="0.25">
@@ -1460,10 +1461,10 @@
         <v>0</v>
       </c>
       <c r="B24" t="s">
+        <v>38</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="39" customHeight="1" x14ac:dyDescent="0.25">
@@ -1471,10 +1472,10 @@
         <v>0</v>
       </c>
       <c r="B25" t="s">
+        <v>40</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="39" customHeight="1" x14ac:dyDescent="0.25">
@@ -1482,10 +1483,10 @@
         <v>0</v>
       </c>
       <c r="B26" t="s">
+        <v>42</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="39" customHeight="1" x14ac:dyDescent="0.25">
@@ -1493,10 +1494,10 @@
         <v>0</v>
       </c>
       <c r="B27" t="s">
+        <v>44</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="39" customHeight="1" x14ac:dyDescent="0.25">
@@ -1504,10 +1505,10 @@
         <v>0</v>
       </c>
       <c r="B28" t="s">
+        <v>46</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="39" customHeight="1" x14ac:dyDescent="0.25">
@@ -1515,10 +1516,10 @@
         <v>0</v>
       </c>
       <c r="B29" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="39" customHeight="1" x14ac:dyDescent="0.25">
@@ -1526,10 +1527,10 @@
         <v>0</v>
       </c>
       <c r="B30" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C30" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="39" customHeight="1" x14ac:dyDescent="0.25">
@@ -1537,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="B31" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C31" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="39" customHeight="1" x14ac:dyDescent="0.25">
@@ -1548,10 +1549,10 @@
         <v>0</v>
       </c>
       <c r="B32" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C32" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="39" customHeight="1" x14ac:dyDescent="0.25">
@@ -1559,10 +1560,10 @@
         <v>0</v>
       </c>
       <c r="B33" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C33" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="39" customHeight="1" x14ac:dyDescent="0.25">
@@ -1570,10 +1571,10 @@
         <v>0</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="39" customHeight="1" x14ac:dyDescent="0.25">
@@ -1581,10 +1582,10 @@
         <v>0</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="39" customHeight="1" x14ac:dyDescent="0.25">
@@ -1592,10 +1593,10 @@
         <v>0</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="39" customHeight="1" x14ac:dyDescent="0.25">
@@ -1603,10 +1604,10 @@
         <v>0</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="39" customHeight="1" x14ac:dyDescent="0.25">
@@ -1614,10 +1615,10 @@
         <v>0</v>
       </c>
       <c r="B38" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C38" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="39" customHeight="1" x14ac:dyDescent="0.25">
@@ -1625,10 +1626,10 @@
         <v>0</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="39" customHeight="1" x14ac:dyDescent="0.25">
@@ -1636,10 +1637,10 @@
         <v>0</v>
       </c>
       <c r="B40" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C40" s="1" t="s">
         <v>70</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="39" customHeight="1" x14ac:dyDescent="0.25">
@@ -1647,7 +1648,7 @@
         <v>0</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>82</v>
